--- a/Datasets/vjcortesa_Presurvey_questions overview.xlsx
+++ b/Datasets/vjcortesa_Presurvey_questions overview.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tud365-my.sharepoint.com/personal/jcortesarevalo_tudelft_nl/Documents/Documents/TUDelft/18_Game Data Analysis/R data analysis BEPs/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1117" documentId="11_F25DC773A252ABDACC10482FB9DB7A865ADE58F4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B5BEA3A-2316-43D3-997C-D36CCE88438C}"/>
+  <xr:revisionPtr revIDLastSave="1121" documentId="11_F25DC773A252ABDACC10482FB9DB7A865ADE58F4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CDD39810-E8D1-40CA-A252-7B7B124F1C24}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="232">
   <si>
     <t>session_19_250923_EPA_IntroDays_Overasselt</t>
   </si>
@@ -733,6 +733,9 @@
   </si>
   <si>
     <t>Q_Role_Faculty_Other</t>
+  </si>
+  <si>
+    <t>RiskPerception_6</t>
   </si>
 </sst>
 </file>
@@ -761,7 +764,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -786,6 +789,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -799,7 +808,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -827,6 +836,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1110,8 +1120,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1516,6 +1526,9 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="11" t="s">
+        <v>231</v>
+      </c>
       <c r="B23" t="s">
         <v>98</v>
       </c>
@@ -1742,8 +1755,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2374,9 +2387,9 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A19">
+      <c r="A19" t="str">
         <f>+Overview!A23</f>
-        <v>0</v>
+        <v>RiskPerception_6</v>
       </c>
       <c r="B19" t="str">
         <f>+Overview!B23</f>
@@ -3472,9 +3485,9 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19">
+      <c r="A19" t="str">
         <f>+Overview!A23</f>
-        <v>0</v>
+        <v>RiskPerception_6</v>
       </c>
       <c r="B19" t="str">
         <f>+Overview!B23</f>
@@ -3904,8 +3917,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4488,9 +4501,9 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19">
+      <c r="A19" t="str">
         <f>+Overview!A23</f>
-        <v>0</v>
+        <v>RiskPerception_6</v>
       </c>
       <c r="B19" t="str">
         <f>+Overview!B23</f>

--- a/Datasets/vjcortesa_Presurvey_questions overview.xlsx
+++ b/Datasets/vjcortesa_Presurvey_questions overview.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tud365-my.sharepoint.com/personal/jcortesarevalo_tudelft_nl/Documents/Documents/TUDelft/18_Game Data Analysis/R data analysis BEPs/Datasets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tud365-my.sharepoint.com/personal/idattatreya_tudelft_nl/Documents/BEP/BranchInes/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1117" documentId="11_F25DC773A252ABDACC10482FB9DB7A865ADE58F4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B5BEA3A-2316-43D3-997C-D36CCE88438C}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="18426" windowHeight="11746" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="2" r:id="rId1"/>
@@ -1110,18 +1110,18 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="40.54296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.29296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.05859375" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="40.52734375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>213</v>
       </c>
@@ -1138,7 +1138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>214</v>
       </c>
@@ -1157,7 +1157,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>215</v>
       </c>
@@ -1176,7 +1176,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>216</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>217</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B6" t="s">
         <v>113</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>2) What is the highest level of education you have completed?</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B7" t="s">
         <v>116</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B8" t="s">
         <v>115</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B9" t="s">
         <v>230</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="43" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>218</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="43" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>219</v>
       </c>
@@ -1309,7 +1309,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A12" s="3" t="s">
         <v>220</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A13" s="3" t="s">
         <v>221</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A14" s="3" t="s">
         <v>222</v>
       </c>
@@ -1366,7 +1366,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A15" s="3" t="s">
         <v>223</v>
       </c>
@@ -1385,7 +1385,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A16" s="3" t="s">
         <v>224</v>
       </c>
@@ -1404,7 +1404,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A17" s="3" t="s">
         <v>225</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A18" s="3" t="s">
         <v>226</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="43" x14ac:dyDescent="0.5">
       <c r="A19" s="3"/>
       <c r="B19" t="s">
         <v>94</v>
@@ -1458,7 +1458,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="43" x14ac:dyDescent="0.5">
       <c r="A20" s="3" t="s">
         <v>227</v>
       </c>
@@ -1477,7 +1477,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="43" x14ac:dyDescent="0.5">
       <c r="A21" s="3" t="s">
         <v>228</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="43" x14ac:dyDescent="0.5">
       <c r="A22" s="3" t="s">
         <v>229</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="43" x14ac:dyDescent="0.5">
       <c r="B23" t="s">
         <v>98</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="43" x14ac:dyDescent="0.5">
       <c r="B24" t="s">
         <v>99</v>
       </c>
@@ -1545,7 +1545,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B25" t="s">
         <v>100</v>
       </c>
@@ -1561,7 +1561,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B26" t="s">
         <v>101</v>
       </c>
@@ -1577,7 +1577,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B27" t="s">
         <v>102</v>
       </c>
@@ -1593,7 +1593,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="57.35" x14ac:dyDescent="0.5">
       <c r="B28" t="s">
         <v>103</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B29" t="s">
         <v>104</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B30" t="s">
         <v>105</v>
       </c>
@@ -1639,7 +1639,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B31" t="s">
         <v>106</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B32" t="s">
         <v>107</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B33" t="s">
         <v>108</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B34" t="s">
         <v>109</v>
       </c>
@@ -1703,7 +1703,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B35" t="s">
         <v>110</v>
       </c>
@@ -1717,7 +1717,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B36" t="s">
         <v>114</v>
       </c>
@@ -1742,27 +1742,27 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.54296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="45.6328125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="40.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.8203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.52734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.87890625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.29296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.64453125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="40.703125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="40" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="41.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.52734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="41.17578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.46875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>213</v>
       </c>
@@ -1800,7 +1800,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A2" t="str">
         <f>+Overview!A2</f>
         <v>Presurvey_id-0-1</v>
@@ -1819,7 +1819,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A3" t="str">
         <f>+Overview!A3</f>
         <v>Presurvey_id-0-2</v>
@@ -1838,7 +1838,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="43" x14ac:dyDescent="0.5">
       <c r="A4" t="str">
         <f>+Overview!A4</f>
         <v>Presurvey_id-0-3</v>
@@ -1863,7 +1863,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A5" t="str">
         <f>+Overview!A5</f>
         <v>Presurvey_id-0-4</v>
@@ -1882,7 +1882,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A6">
         <f>+Overview!A8</f>
         <v>0</v>
@@ -1916,7 +1916,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A7">
         <f>+Overview!A9</f>
         <v>0</v>
@@ -1936,7 +1936,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A8" t="str">
         <f>+Overview!A10</f>
         <v>RiskPerception_1</v>
@@ -1970,7 +1970,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A9" t="str">
         <f>+Overview!A12</f>
         <v>RiskPerception_2_1</v>
@@ -2007,7 +2007,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A10" t="str">
         <f>+Overview!A13</f>
         <v>RiskPerception_2_2</v>
@@ -2051,7 +2051,7 @@
         <v>6 = Eén keer per dag</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A11" t="str">
         <f>+Overview!A14</f>
         <v>RiskPerception_2_3</v>
@@ -2095,7 +2095,7 @@
         <v>6 = Eén keer per dag</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A12" t="str">
         <f>+Overview!A15</f>
         <v>RiskPerception_2_4</v>
@@ -2139,7 +2139,7 @@
         <v>6 = Eén keer per dag</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A13" t="str">
         <f>+Overview!A16</f>
         <v>RiskPerception_2_5</v>
@@ -2183,7 +2183,7 @@
         <v>6 = Eén keer per dag</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A14" t="str">
         <f>+Overview!A17</f>
         <v>RiskPerception_2_6</v>
@@ -2227,7 +2227,7 @@
         <v>6 = Eén keer per dag</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A15" t="str">
         <f>+Overview!A18</f>
         <v>RiskPerception_2_7</v>
@@ -2271,7 +2271,7 @@
         <v>6 = Eén keer per dag</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A16" t="str">
         <f>+Overview!A20</f>
         <v>RiskPerception_3</v>
@@ -2305,7 +2305,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A17" t="str">
         <f>+Overview!A21</f>
         <v>RiskPerception_4</v>
@@ -2339,7 +2339,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A18" t="str">
         <f>+Overview!A22</f>
         <v>RiskPerception_5</v>
@@ -2373,7 +2373,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" ht="43" x14ac:dyDescent="0.5">
       <c r="A19">
         <f>+Overview!A23</f>
         <v>0</v>
@@ -2407,7 +2407,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A20">
         <f>+Overview!A25</f>
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A21">
         <f>+Overview!A26</f>
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>6 = Ik weet het niet</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A22">
         <f>+Overview!A27</f>
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>6 = Ik weet het niet</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" ht="43" x14ac:dyDescent="0.5">
       <c r="A23">
         <f>+Overview!A28</f>
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A24">
         <f>+Overview!A29</f>
         <v>0</v>
@@ -2615,7 +2615,7 @@
       <c r="L24" s="10"/>
       <c r="M24" s="2"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A25">
         <f>+Overview!A30</f>
         <v>0</v>
@@ -2660,7 +2660,7 @@
       </c>
       <c r="L25" s="10"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A26">
         <f>+Overview!A31</f>
         <v>0</v>
@@ -2705,7 +2705,7 @@
       </c>
       <c r="L26" s="10"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A27">
         <f>+Overview!A32</f>
         <v>0</v>
@@ -2750,7 +2750,7 @@
       </c>
       <c r="L27" s="10"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A28">
         <f>+Overview!A33</f>
         <v>0</v>
@@ -2795,7 +2795,7 @@
       </c>
       <c r="L28" s="10"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A29">
         <f>+Overview!A34</f>
         <v>0</v>
@@ -2854,23 +2854,23 @@
       <selection activeCell="A2" sqref="A2:XFD18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.54296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.8203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.52734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.87890625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.29296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.17578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="40" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="41.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.52734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="41.17578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.46875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>213</v>
       </c>
@@ -2908,7 +2908,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A2" t="str">
         <f>+Overview!A2</f>
         <v>Presurvey_id-0-1</v>
@@ -2927,7 +2927,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A3" t="str">
         <f>+Overview!A3</f>
         <v>Presurvey_id-0-2</v>
@@ -2946,7 +2946,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A4" t="str">
         <f>+Overview!A4</f>
         <v>Presurvey_id-0-3</v>
@@ -2971,7 +2971,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A5" t="str">
         <f>+Overview!A5</f>
         <v>Presurvey_id-0-4</v>
@@ -2990,7 +2990,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A6">
         <f>+Overview!A8</f>
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A7" t="str">
         <f>+Overview!A10</f>
         <v>RiskPerception_1</v>
@@ -3043,7 +3043,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A8" t="str">
         <f>+Overview!A12</f>
         <v>RiskPerception_2_1</v>
@@ -3080,7 +3080,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A9" t="str">
         <f>+Overview!A13</f>
         <v>RiskPerception_2_2</v>
@@ -3124,7 +3124,7 @@
         <v>6 = Once a day</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A10" t="str">
         <f>+Overview!A14</f>
         <v>RiskPerception_2_3</v>
@@ -3168,7 +3168,7 @@
         <v>6 = Once a day</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A11" t="str">
         <f>+Overview!A15</f>
         <v>RiskPerception_2_4</v>
@@ -3212,7 +3212,7 @@
         <v>6 = Once a day</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A12" t="str">
         <f>+Overview!A16</f>
         <v>RiskPerception_2_5</v>
@@ -3256,7 +3256,7 @@
         <v>6 = Once a day</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A13" t="str">
         <f>+Overview!A17</f>
         <v>RiskPerception_2_6</v>
@@ -3300,7 +3300,7 @@
         <v>6 = Once a day</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A14" t="str">
         <f>+Overview!A18</f>
         <v>RiskPerception_2_7</v>
@@ -3344,7 +3344,7 @@
         <v>6 = Once a day</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="43" x14ac:dyDescent="0.5">
       <c r="A15">
         <f>+Overview!A19</f>
         <v>0</v>
@@ -3369,7 +3369,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A16" t="str">
         <f>+Overview!A20</f>
         <v>RiskPerception_3</v>
@@ -3403,7 +3403,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="43" x14ac:dyDescent="0.5">
       <c r="A17" t="str">
         <f>+Overview!A21</f>
         <v>RiskPerception_4</v>
@@ -3437,7 +3437,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A18" t="str">
         <f>+Overview!A22</f>
         <v>RiskPerception_5</v>
@@ -3471,7 +3471,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A19">
         <f>+Overview!A23</f>
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A20">
         <f>+Overview!A25</f>
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A21">
         <f>+Overview!A26</f>
         <v>0</v>
@@ -3586,7 +3586,7 @@
         <v>6 = I don't know</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A22">
         <f>+Overview!A27</f>
         <v>0</v>
@@ -3630,7 +3630,7 @@
         <v>6 = I don't know</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A23">
         <f>+Overview!A29</f>
         <v>0</v>
@@ -3669,7 +3669,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A24">
         <f>+Overview!A30</f>
         <v>0</v>
@@ -3714,7 +3714,7 @@
       </c>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A25">
         <f>+Overview!A31</f>
         <v>0</v>
@@ -3759,7 +3759,7 @@
       </c>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A26">
         <f>+Overview!A32</f>
         <v>0</v>
@@ -3804,7 +3804,7 @@
       </c>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A27">
         <f>+Overview!A33</f>
         <v>0</v>
@@ -3849,7 +3849,7 @@
       </c>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A28">
         <f>+Overview!A34</f>
         <v>0</v>
@@ -3908,23 +3908,23 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.54296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.8203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.52734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.87890625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.29296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.17578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="40" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="41.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.52734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="41.17578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.46875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>213</v>
       </c>
@@ -3962,7 +3962,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A2" t="str">
         <f>+Overview!A2</f>
         <v>Presurvey_id-0-1</v>
@@ -3981,7 +3981,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A3" t="str">
         <f>+Overview!A3</f>
         <v>Presurvey_id-0-2</v>
@@ -4000,7 +4000,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A4" t="str">
         <f>+Overview!A4</f>
         <v>Presurvey_id-0-3</v>
@@ -4025,7 +4025,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A5" t="str">
         <f>+Overview!A5</f>
         <v>Presurvey_id-0-4</v>
@@ -4044,7 +4044,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A6">
         <f>+Overview!A6</f>
         <v>0</v>
@@ -4078,7 +4078,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A7">
         <f>+Overview!A8</f>
         <v>0</v>
@@ -4094,7 +4094,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A8">
         <f>+Overview!A9</f>
         <v>0</v>
@@ -4113,7 +4113,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A9" t="str">
         <f>+Overview!A10</f>
         <v>RiskPerception_1</v>
@@ -4147,7 +4147,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A10" t="str">
         <f>+Overview!A12</f>
         <v>RiskPerception_2_1</v>
@@ -4184,7 +4184,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A11" t="str">
         <f>+Overview!A13</f>
         <v>RiskPerception_2_2</v>
@@ -4228,7 +4228,7 @@
         <v>6 = Once a day</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A12" t="str">
         <f>+Overview!A14</f>
         <v>RiskPerception_2_3</v>
@@ -4272,7 +4272,7 @@
         <v>6 = Once a day</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A13" t="str">
         <f>+Overview!A15</f>
         <v>RiskPerception_2_4</v>
@@ -4316,7 +4316,7 @@
         <v>6 = Once a day</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A14" t="str">
         <f>+Overview!A16</f>
         <v>RiskPerception_2_5</v>
@@ -4360,7 +4360,7 @@
         <v>6 = Once a day</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="43" x14ac:dyDescent="0.5">
       <c r="A15">
         <f>+Overview!A19</f>
         <v>0</v>
@@ -4385,7 +4385,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A16" t="str">
         <f>+Overview!A20</f>
         <v>RiskPerception_3</v>
@@ -4419,7 +4419,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="43" x14ac:dyDescent="0.5">
       <c r="A17" t="str">
         <f>+Overview!A21</f>
         <v>RiskPerception_4</v>
@@ -4453,7 +4453,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A18" t="str">
         <f>+Overview!A22</f>
         <v>RiskPerception_5</v>
@@ -4487,7 +4487,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A19">
         <f>+Overview!A23</f>
         <v>0</v>
@@ -4521,7 +4521,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A20">
         <f>+Overview!A25</f>
         <v>0</v>
@@ -4558,7 +4558,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A21">
         <f>+Overview!A26</f>
         <v>0</v>
@@ -4602,7 +4602,7 @@
         <v>6 = I don't know</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A22">
         <f>+Overview!A27</f>
         <v>0</v>
@@ -4646,7 +4646,7 @@
         <v>6 = I don't know</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A23">
         <f>+Overview!A29</f>
         <v>0</v>
@@ -4687,7 +4687,7 @@
       </c>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A24">
         <f>+Overview!A30</f>
         <v>0</v>
@@ -4735,7 +4735,7 @@
         <v>7 = None, I dont' know</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A25">
         <f>+Overview!A31</f>
         <v>0</v>
@@ -4783,7 +4783,7 @@
         <v>7 = None, I dont' know</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A26">
         <f>+Overview!A32</f>
         <v>0</v>
@@ -4831,7 +4831,7 @@
         <v>7 = None, I dont' know</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A27">
         <f>+Overview!A33</f>
         <v>0</v>
@@ -4879,7 +4879,7 @@
         <v>7 = None, I dont' know</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A28">
         <f>+Overview!A34</f>
         <v>0</v>
@@ -4927,7 +4927,7 @@
         <v>7 = None, I dont' know</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A29">
         <f>+Overview!A35</f>
         <v>0</v>
